--- a/statistics/HistoricalDistanceData/historical_distance/Q5598969-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5598969-en.xlsx
@@ -37,12 +37,12 @@
     <t>Nation’s Largest Sitka Spruce Dies In Oregon Storm</t>
   </si>
   <si>
+    <t>Washington and Oregon Residents Fight to Save Homes From Muddy Waters</t>
+  </si>
+  <si>
     <t>Northwest reels from deadly back-to-back storms</t>
   </si>
   <si>
-    <t>Washington and Oregon Residents Fight to Save Homes From Muddy Waters</t>
-  </si>
-  <si>
     <t>2007-12-07T01:52:14UTC</t>
   </si>
   <si>
@@ -64,10 +64,10 @@
     <t>http://www.newwest.net/city/article/nations_largest_sitka_spruce_dies_in_oregon/C509/L509/</t>
   </si>
   <si>
+    <t>http://www.foxnews.com/story/0,2933,314821,00.html</t>
+  </si>
+  <si>
     <t>http://www.cnn.com/2007/US/weather/12/04/northwest.storms/index.html</t>
-  </si>
-  <si>
-    <t>http://www.foxnews.com/story/0,2933,314821,00.html</t>
   </si>
 </sst>
 </file>
